--- a/test_example/0101.02a Формирование базы (тест)_parsed.xlsx
+++ b/test_example/0101.02a Формирование базы (тест)_parsed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>0101.02a Формирование базы (тест)</t>
   </si>
@@ -40,6 +40,9 @@
     <t>TestPOV</t>
   </si>
   <si>
+    <t>TestPOV2</t>
+  </si>
+  <si>
     <t>SC_Budget</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>TestPOV_NA</t>
   </si>
   <si>
+    <t>TestPOV2_NA</t>
+  </si>
+  <si>
     <t>&lt;Измерения страниц&gt;</t>
   </si>
   <si>
@@ -64,10 +70,16 @@
     <t>Years</t>
   </si>
   <si>
+    <t>Period</t>
+  </si>
+  <si>
     <t>CC_010101</t>
   </si>
   <si>
     <t>&amp;vCurrYear,ISiblings(&amp;vCurrYear),Children(FY20)</t>
+  </si>
+  <si>
+    <t>ILvl0Descendants(YearTotal),YearTotal</t>
   </si>
   <si>
     <t>&lt;Измерения cтолбцов и строк&gt;</t>
@@ -538,137 +550,149 @@
       <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="E13" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
